--- a/biology/Médecine/Robert_Wartenberg/Robert_Wartenberg.xlsx
+++ b/biology/Médecine/Robert_Wartenberg/Robert_Wartenberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Robert Wartenberg, né le 19 juin 1886 à Garten et mort le 16 novembre 1956 à San Francisco est un médecin neurologue allemand naturalisé américain après la Seconde Guerre mondiale[1],[2]. On lui doit entre autres la description d'un syndrome neurologique rare qui porte son nom, la neuropathie sensitive disséminée de Wartenberg.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robert Wartenberg, né le 19 juin 1886 à Garten et mort le 16 novembre 1956 à San Francisco est un médecin neurologue allemand naturalisé américain après la Seconde Guerre mondiale,. On lui doit entre autres la description d'un syndrome neurologique rare qui porte son nom, la neuropathie sensitive disséminée de Wartenberg.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il effectue sa scolarité à Stuttgart et ses études médicales dans plusieurs universités allemandes, celles de  Göttingen, de Kiel, de Munich, de Fribourg-en-Brisgau et enfin de Rostock où il obtient son diplôme de médecin en 1919. Il part ensuite compléter sa formation auprès de Max Nonne à Hambourg et d'Otfrid Foerster à Breslau. En 1926 il se voit attribuer une bourse de la Fondation Rockefeller qui lui permet d'aller travailler à Boston dans le service du neurochirurgien Harvey Cushing.
 Il épouse en 1929 la baronne Isabelle von Sazenhofen.
@@ -544,7 +558,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Wartenberg a laissé son nom :
 à une maladie qui est aussi un syndrome neurologique, la neuropathie sensitive disséminée de Wartenberg ;
@@ -579,7 +595,9 @@
           <t>Travaux notables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Wartenberg est l'auteur d'environ 160 travaux scientifiques, parmi lesquels de nombreuses monographies.
 (en) The examination of reflexes. The Year Book Publishers, Chicago 1945.
